--- a/表格/Monster.xlsx
+++ b/表格/Monster.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\Demo1\表格\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95ACCF9-51C7-4E90-A8D8-FEA0B2DBF3E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="2580" windowWidth="27210" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20700" yWindow="2580" windowWidth="27210" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="t_Monster" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -188,15 +182,19 @@
     <t>魔法</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -392,13 +390,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="差" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="差" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="强调文字颜色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="强调文字颜色 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="适中" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="好" xfId="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="2"/>
+    <cellStyle name="强调文字颜色 3" xfId="5"/>
+    <cellStyle name="强调文字颜色 4" xfId="3"/>
+    <cellStyle name="适中" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,17 +739,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
@@ -767,12 +765,12 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -808,7 +806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -849,7 +847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -890,7 +888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="78.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -929,7 +927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
@@ -970,7 +968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="22.5" customHeight="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="22.5" customHeight="1">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1052,7 +1050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="22.5" customHeight="1">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1093,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="22.5" customHeight="1">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1107,7 +1105,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="22.5" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1122,7 +1120,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1137,7 +1135,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1152,7 +1150,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1167,7 +1165,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1182,7 +1180,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1197,7 +1195,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1212,7 +1210,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1227,7 +1225,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1242,7 +1240,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1257,7 +1255,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1272,7 +1270,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>

--- a/表格/Monster.xlsx
+++ b/表格/Monster.xlsx
@@ -746,7 +746,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
@@ -1023,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F7" s="4">
         <v>4</v>
@@ -1064,7 +1064,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
